--- a/inst/extdata/echogo_demo_results/evaluation/summary_consensus_vs_goseq.xlsx
+++ b/inst/extdata/echogo_demo_results/evaluation/summary_consensus_vs_goseq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">ontology</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consensus</t>
   </si>
   <si>
     <t xml:space="preserve">GOseq</t>
@@ -401,36 +404,36 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.363232903022577</v>
+        <v>184.609275877108</v>
       </c>
       <c r="E2" t="n">
-        <v>0.587204589354916</v>
+        <v>182.685955969282</v>
       </c>
       <c r="F2" t="n">
-        <v>0.166666666666667</v>
+        <v>1.39258562405423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239714683074663</v>
+        <v>37.0257184132748</v>
       </c>
       <c r="E3" t="n">
-        <v>0.239714683074663</v>
+        <v>43.1074458817502</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0763309113015285</v>
+        <v>0.168723085545584</v>
       </c>
     </row>
     <row r="4">
@@ -441,16 +444,76 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>120.046141313046</v>
+      </c>
+      <c r="E4" t="n">
+        <v>169.682394740517</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.25776397515528</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.181625531875795</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.219175324162951</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0882641398126982</v>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>48.7936419423294</v>
+      </c>
+      <c r="E5" t="n">
+        <v>49.6305662790581</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.164037720888083</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>127.025203509277</v>
+      </c>
+      <c r="E6" t="n">
+        <v>158.779235398675</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.52414616260375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.1531063440559</v>
+      </c>
+      <c r="E7" t="n">
+        <v>37.2106417882747</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.163478647686833</v>
       </c>
     </row>
   </sheetData>
